--- a/xlsx/新西班牙_intext.xlsx
+++ b/xlsx/新西班牙_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t>新西班牙</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>政策_政策_加州_新西班牙</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3%E8%BD%84%E5%8D%80</t>
   </si>
   <si>
-    <t>總督轄區</t>
+    <t>总督辖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%89%AE%E7%AC%AC%E5%8D%81%E5%AD%97%E6%97%97</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E9%80%B2%E8%A1%8C%E6%9B%B2</t>
   </si>
   <si>
-    <t>皇家進行曲</t>
+    <t>皇家进行曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>納瓦特語</t>
+    <t>纳瓦特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E9%9B%85%E8%AF%AD</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>美洲原住民語言</t>
+    <t>美洲原住民语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>菲律賓語</t>
+    <t>菲律宾语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>立法部門</t>
+    <t>立法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%AD%B0%E6%9C%83_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>印度議會 (西班牙)</t>
+    <t>印度议会 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94%E7%B8%BD%E7%9D%A3%E8%BD%84%E5%8D%80</t>
   </si>
   <si>
-    <t>新格林納達總督轄區</t>
+    <t>新格林纳达总督辖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Third_Treaty_of_San_Ildefonso</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF-%E5%A5%A7%E5%B0%BC%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>亞當斯-奧尼斯條約</t>
+    <t>亚当斯-奥尼斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spanish_colonial_real</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>瑪雅文明</t>
+    <t>玛雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3</t>
@@ -275,31 +275,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E9%83%BD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>湯都王國</t>
+    <t>汤都王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%96%AF%E5%8D%A1%E6%8B%89%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>特拉斯卡拉聯邦</t>
+    <t>特拉斯卡拉联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E6%8B%89%E8%B3%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>宿霧拉賈國</t>
+    <t>宿雾拉贾国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%B0%BC%E6%8B%89%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>梅尼拉王國</t>
+    <t>梅尼拉王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A0%BC%E6%8B%89%E7%B4%8D%E9%81%94%E7%B8%BD%E7%9D%A3%E8%BD%84%E5%8D%80</t>
   </si>
   <si>
-    <t>新格拉納達總督轄區</t>
+    <t>新格拉纳达总督辖区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%9E%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B2%9B</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西屬東印度群島</t>
+    <t>西属东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>佛羅里達領地</t>
+    <t>佛罗里达领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥第一帝國</t>
+    <t>墨西哥第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -449,25 +449,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -485,9 +485,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -509,25 +506,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -551,9 +548,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>西班牙帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E4%BB%A3</t>
   </si>
   <si>
@@ -569,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%96%B9%E5%A4%96%E7%B4%80</t>
   </si>
   <si>
-    <t>職方外紀</t>
+    <t>职方外纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E7%89%B9%E5%8D%A1%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>薩卡特卡斯州</t>
+    <t>萨卡特卡斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%8E%E8%B2%9D%E6%8B%89%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>伊莎貝拉一世</t>
+    <t>伊莎贝拉一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%97%81%E6%94%B9%E9%9D%A9</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%8A%A0%E6%95%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>猶加敦共和國</t>
+    <t>犹加敦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89%E5%8E%86%E5%8F%B2</t>
@@ -629,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E5%BE%81%E8%B3%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>監護征賦制</t>
+    <t>监护征赋制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E7%8E%8B%E6%94%BF%E5%BE%A9%E5%8F%A4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙王政復古戰爭</t>
+    <t>葡萄牙王政复古战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%B3%A2%E6%97%81%E7%8E%8B%E6%9C%9D</t>
@@ -659,55 +653,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>西班牙內戰</t>
+    <t>西班牙内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>西西里王國</t>
+    <t>西西里王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>那不勒斯王國</t>
+    <t>那不勒斯王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E7%B5%B1%E6%B2%BB%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>米蘭統治者列表</t>
+    <t>米兰统治者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E5%B0%BC%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>西屬尼德蘭</t>
+    <t>西属尼德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E7%90%AA-%E5%BA%B7%E5%A0%A4</t>
   </si>
   <si>
-    <t>法蘭琪-康堤</t>
+    <t>法兰琪-康堤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>伊比利聯盟</t>
+    <t>伊比利联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣西班牙統治時期</t>
+    <t>台湾西班牙统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A4%9A%E9%9B%B7</t>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>西屬摩洛哥</t>
+    <t>西属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%92%92%E5%93%88%E6%8B%89</t>
   </si>
   <si>
-    <t>西屬撒哈拉</t>
+    <t>西属撒哈拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%AF%8F%E4%B9%A6</t>
@@ -755,31 +749,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99%E5%89%AF%E7%8E%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>新西班牙副王區</t>
+    <t>新西班牙副王区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A0%BC%E6%8B%89%E7%B4%8D%E9%81%94%E5%89%AF%E7%8E%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>新格拉納達副王區</t>
+    <t>新格拉纳达副王区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E5%89%AF%E7%8E%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>拉普拉塔副王區</t>
+    <t>拉普拉塔副王区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AF%A9%E5%95%8F%E9%99%A2</t>
   </si>
   <si>
-    <t>皇家審問院</t>
+    <t>皇家审问院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E7%9D%A3%E5%BA%9C_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
@@ -791,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%A1%E6%96%AF%E6%8F%90%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>新卡斯提爾州</t>
+    <t>新卡斯提尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%8A%80%E5%9C%93</t>
   </si>
   <si>
-    <t>西班牙銀圓</t>
+    <t>西班牙银圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BC%E6%8B%89%E9%82%AE%E8%88%B9</t>
@@ -815,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙艦隊</t>
+    <t>西班牙舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%A4%A7%E6%96%B9%E9%99%A3</t>
   </si>
   <si>
-    <t>西班牙大方陣</t>
+    <t>西班牙大方阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E5%B0%94%E7%93%A6%E9%9B%B7%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%89%98%E8%8E%B1%E5%A4%9A%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E9%98%BF%E5%B0%94%E7%93%A6%E5%85%AC%E7%88%B5</t>
@@ -839,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%9A%84%E5%94%90%E8%83%A1%E5%AE%89</t>
   </si>
   <si>
-    <t>奧地利的唐胡安</t>
+    <t>奥地利的唐胡安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BE%E5%85%84%E5%BC%9F</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E9%BA%A5%E5%93%B2%E5%80%AB</t>
   </si>
   <si>
-    <t>斐迪南·麥哲倫</t>
+    <t>斐迪南·麦哲伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%A1%9E%E5%B7%B4%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E5%9F%83%E5%B0%94%E5%8D%A1%E8%AF%BA</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E9%BE%90%E5%A1%9E%C2%B7%E5%BE%B7%E8%90%8A%E6%98%82</t>
   </si>
   <si>
-    <t>胡安·龐塞·德萊昂</t>
+    <t>胡安·庞塞·德莱昂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E5%B0%94%C2%B7%E6%B4%9B%E4%BD%A9%E6%96%AF%C2%B7%E5%BE%B7%E8%8E%B1%E5%8A%A0%E6%96%AF%E7%9A%AE</t>
@@ -911,31 +905,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%8D%97%C2%B7%E7%A7%91%E7%88%BE%E7%89%B9%E6%96%AF</t>
   </si>
   <si>
-    <t>埃爾南·科爾特斯</t>
+    <t>埃尔南·科尔特斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%E5%85%8B%C2%B7%E7%9A%AE%E6%BE%A4%E6%B4%9B</t>
   </si>
   <si>
-    <t>法蘭西斯克·皮澤洛</t>
+    <t>法兰西斯克·皮泽洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E5%B7%B4%E7%88%BE%E8%BF%AA%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>佩德羅·德·巴爾迪維亞</t>
+    <t>佩德罗·德·巴尔迪维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E7%93%A6%E6%8B%89%E5%A4%9A</t>
   </si>
   <si>
-    <t>佩德羅·德·阿爾瓦拉多</t>
+    <t>佩德罗·德·阿尔瓦拉多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AD%E6%88%88%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E9%A6%AC%E6%A0%BC%E7%BE%85</t>
   </si>
   <si>
-    <t>迭戈·德·阿爾馬格羅</t>
+    <t>迭戈·德·阿尔马格罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%8F%B2%E6%B4%9B%C2%B7%E5%BE%B7%C2%B7%E7%BA%B3%E5%B0%94%E7%93%A6%E5%9F%83%E6%96%AF</t>
@@ -3557,7 +3551,7 @@
         <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3583,10 +3577,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>7</v>
@@ -3612,10 +3606,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3641,10 +3635,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3670,10 +3664,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3699,10 +3693,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3728,10 +3722,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3757,10 +3751,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3786,10 +3780,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3815,10 +3809,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3844,10 +3838,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3873,10 +3867,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3902,10 +3896,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3931,10 +3925,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3960,10 +3954,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3989,10 +3983,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4047,10 +4041,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4076,10 +4070,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4105,10 +4099,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4134,10 +4128,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4163,10 +4157,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4192,10 +4186,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4221,10 +4215,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4250,10 +4244,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4279,10 +4273,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4308,10 +4302,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4337,10 +4331,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4366,10 +4360,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4395,10 +4389,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4424,10 +4418,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4453,10 +4447,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4482,10 +4476,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4511,10 +4505,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4569,10 +4563,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4598,10 +4592,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4627,10 +4621,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4656,10 +4650,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4714,10 +4708,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4743,10 +4737,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4772,10 +4766,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4801,10 +4795,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -4859,10 +4853,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4888,10 +4882,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4917,10 +4911,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4946,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4975,10 +4969,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5004,10 +4998,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>25</v>
@@ -5033,10 +5027,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5062,10 +5056,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5091,10 +5085,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5120,10 +5114,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5149,10 +5143,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5178,10 +5172,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5207,10 +5201,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5236,10 +5230,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5265,10 +5259,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5294,10 +5288,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5323,10 +5317,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5352,10 +5346,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5381,10 +5375,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5410,10 +5404,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5439,10 +5433,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5468,10 +5462,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5497,10 +5491,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5526,10 +5520,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5555,10 +5549,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5584,10 +5578,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5613,10 +5607,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5642,10 +5636,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5671,10 +5665,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5700,10 +5694,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5729,10 +5723,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5758,10 +5752,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5787,10 +5781,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5816,10 +5810,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5845,10 +5839,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5874,10 +5868,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5903,10 +5897,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5932,10 +5926,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
